--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H2">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I2">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J2">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N2">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q2">
-        <v>5.096424956602666</v>
+        <v>6.394489308842445</v>
       </c>
       <c r="R2">
-        <v>45.867824609424</v>
+        <v>57.55040377958201</v>
       </c>
       <c r="S2">
-        <v>0.04040268570353276</v>
+        <v>0.04383665410190563</v>
       </c>
       <c r="T2">
-        <v>0.04040268570353276</v>
+        <v>0.04383665410190565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H3">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I3">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J3">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q3">
-        <v>11.54271929191478</v>
+        <v>18.83119811285844</v>
       </c>
       <c r="R3">
-        <v>103.884473627233</v>
+        <v>169.480783015726</v>
       </c>
       <c r="S3">
-        <v>0.09150666667055481</v>
+        <v>0.129095018871377</v>
       </c>
       <c r="T3">
-        <v>0.09150666667055482</v>
+        <v>0.129095018871377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H4">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I4">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J4">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N4">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q4">
-        <v>1.886603145121</v>
+        <v>3.952460656220223</v>
       </c>
       <c r="R4">
-        <v>16.979428306089</v>
+        <v>35.572145905982</v>
       </c>
       <c r="S4">
-        <v>0.01495633401230965</v>
+        <v>0.02709561972345866</v>
       </c>
       <c r="T4">
-        <v>0.01495633401230965</v>
+        <v>0.02709561972345866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H5">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I5">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J5">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N5">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q5">
-        <v>2.750209512942777</v>
+        <v>6.030299818472224</v>
       </c>
       <c r="R5">
-        <v>24.751885616485</v>
+        <v>54.27269836625001</v>
       </c>
       <c r="S5">
-        <v>0.02180270513477039</v>
+        <v>0.04133999675433105</v>
       </c>
       <c r="T5">
-        <v>0.02180270513477039</v>
+        <v>0.04133999675433105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H6">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I6">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J6">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N6">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q6">
-        <v>2.285550076685444</v>
+        <v>2.793795829321778</v>
       </c>
       <c r="R6">
-        <v>20.569950690169</v>
+        <v>25.14416246389601</v>
       </c>
       <c r="S6">
-        <v>0.01811904662470762</v>
+        <v>0.01915253204536134</v>
       </c>
       <c r="T6">
-        <v>0.01811904662470762</v>
+        <v>0.01915253204536134</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.454042</v>
       </c>
       <c r="I7">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J7">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N7">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q7">
-        <v>11.176911384608</v>
+        <v>8.595917156535334</v>
       </c>
       <c r="R7">
-        <v>100.592202461472</v>
+        <v>77.36325440881801</v>
       </c>
       <c r="S7">
-        <v>0.08860666872441905</v>
+        <v>0.0589282785348637</v>
       </c>
       <c r="T7">
-        <v>0.08860666872441905</v>
+        <v>0.0589282785348637</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.454042</v>
       </c>
       <c r="I8">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J8">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q8">
         <v>25.31420589171934</v>
@@ -948,10 +948,10 @@
         <v>227.827853025474</v>
       </c>
       <c r="S8">
-        <v>0.2006822259106584</v>
+        <v>0.1735385007220542</v>
       </c>
       <c r="T8">
-        <v>0.2006822259106584</v>
+        <v>0.1735385007220542</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.454042</v>
       </c>
       <c r="I9">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J9">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N9">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O9">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P9">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q9">
-        <v>4.137487817538001</v>
+        <v>5.313172440268668</v>
       </c>
       <c r="R9">
-        <v>37.237390357842</v>
+        <v>47.81855196241801</v>
       </c>
       <c r="S9">
-        <v>0.03280056536054992</v>
+        <v>0.03642381607015276</v>
       </c>
       <c r="T9">
-        <v>0.03280056536054992</v>
+        <v>0.03642381607015276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.454042</v>
       </c>
       <c r="I10">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J10">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N10">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q10">
-        <v>6.031453082703333</v>
+        <v>8.106348320416668</v>
       </c>
       <c r="R10">
-        <v>54.28307774433</v>
+        <v>72.95713488375002</v>
       </c>
       <c r="S10">
-        <v>0.04781526370173632</v>
+        <v>0.05557209812834873</v>
       </c>
       <c r="T10">
-        <v>0.04781526370173632</v>
+        <v>0.05557209812834873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.454042</v>
       </c>
       <c r="I11">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J11">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N11">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O11">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P11">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q11">
-        <v>5.012413778231334</v>
+        <v>3.755614614589334</v>
       </c>
       <c r="R11">
-        <v>45.11172400408201</v>
+        <v>33.800531531304</v>
       </c>
       <c r="S11">
-        <v>0.03973667428097215</v>
+        <v>0.02574616530708015</v>
       </c>
       <c r="T11">
-        <v>0.03973667428097215</v>
+        <v>0.02574616530708015</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H12">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I12">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J12">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N12">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q12">
-        <v>4.016363930927999</v>
+        <v>3.602524353286444</v>
       </c>
       <c r="R12">
-        <v>36.14727537835199</v>
+        <v>32.422719179578</v>
       </c>
       <c r="S12">
-        <v>0.03184033728624969</v>
+        <v>0.02469667339193611</v>
       </c>
       <c r="T12">
-        <v>0.03184033728624969</v>
+        <v>0.02469667339193611</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H13">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I13">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J13">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q13">
-        <v>9.096525863450998</v>
+        <v>10.60911145935044</v>
       </c>
       <c r="R13">
-        <v>81.86873277105899</v>
+        <v>95.48200313415398</v>
       </c>
       <c r="S13">
-        <v>0.0721140953873798</v>
+        <v>0.07272949048941285</v>
       </c>
       <c r="T13">
-        <v>0.07211409538737981</v>
+        <v>0.07272949048941285</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H14">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I14">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J14">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N14">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O14">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P14">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q14">
-        <v>1.486784341683</v>
+        <v>2.226735409464222</v>
       </c>
       <c r="R14">
-        <v>13.381059075147</v>
+        <v>20.040618685178</v>
       </c>
       <c r="S14">
-        <v>0.01178670950273258</v>
+        <v>0.01526511738571013</v>
       </c>
       <c r="T14">
-        <v>0.01178670950273258</v>
+        <v>0.01526511738571013</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H15">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I15">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J15">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N15">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q15">
-        <v>2.167370732294999</v>
+        <v>3.397347450972222</v>
       </c>
       <c r="R15">
-        <v>19.506336590655</v>
+        <v>30.57612705875</v>
       </c>
       <c r="S15">
-        <v>0.01718216185769643</v>
+        <v>0.02329010775986733</v>
       </c>
       <c r="T15">
-        <v>0.01718216185769643</v>
+        <v>0.02329010775986733</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H16">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I16">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J16">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N16">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O16">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P16">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q16">
-        <v>1.801184353443</v>
+        <v>1.573967368953778</v>
       </c>
       <c r="R16">
-        <v>16.210659180987</v>
+        <v>14.165706320584</v>
       </c>
       <c r="S16">
-        <v>0.01427916352069461</v>
+        <v>0.01079014441780394</v>
       </c>
       <c r="T16">
-        <v>0.01427916352069461</v>
+        <v>0.01079014441780394</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H17">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I17">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J17">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N17">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O17">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P17">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q17">
-        <v>4.428039787797332</v>
+        <v>3.442311669549666</v>
       </c>
       <c r="R17">
-        <v>39.85235809017599</v>
+        <v>30.980805025947</v>
       </c>
       <c r="S17">
-        <v>0.03510396039430224</v>
+        <v>0.02359835456450523</v>
       </c>
       <c r="T17">
-        <v>0.03510396039430224</v>
+        <v>0.02359835456450523</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H18">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I18">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J18">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O18">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P18">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q18">
-        <v>10.02891648934355</v>
+        <v>10.13729945968566</v>
       </c>
       <c r="R18">
-        <v>90.26024840409198</v>
+        <v>91.23569513717099</v>
       </c>
       <c r="S18">
-        <v>0.07950576420064318</v>
+        <v>0.06949503994434228</v>
       </c>
       <c r="T18">
-        <v>0.07950576420064318</v>
+        <v>0.06949503994434229</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H19">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I19">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J19">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N19">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O19">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P19">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q19">
-        <v>1.639179201404</v>
+        <v>2.127707277816333</v>
       </c>
       <c r="R19">
-        <v>14.752612812636</v>
+        <v>19.149365500347</v>
       </c>
       <c r="S19">
-        <v>0.01299484298307837</v>
+        <v>0.01458624191282387</v>
       </c>
       <c r="T19">
-        <v>0.01299484298307837</v>
+        <v>0.01458624191282387</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H20">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I20">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J20">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N20">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O20">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P20">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q20">
-        <v>2.389525452015555</v>
+        <v>3.246259463958333</v>
       </c>
       <c r="R20">
-        <v>21.50572906814</v>
+        <v>29.216335175625</v>
       </c>
       <c r="S20">
-        <v>0.01894332726184854</v>
+        <v>0.02225434219583357</v>
       </c>
       <c r="T20">
-        <v>0.01894332726184853</v>
+        <v>0.02225434219583357</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H21">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I21">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J21">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N21">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O21">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P21">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q21">
-        <v>1.985805101172889</v>
+        <v>1.503969358790666</v>
       </c>
       <c r="R21">
-        <v>17.872245910556</v>
+        <v>13.535724229116</v>
       </c>
       <c r="S21">
-        <v>0.01574277264049891</v>
+        <v>0.0103102814590687</v>
       </c>
       <c r="T21">
-        <v>0.01574277264049891</v>
+        <v>0.0103102814590687</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H22">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I22">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J22">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N22">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O22">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P22">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q22">
-        <v>2.566883612789333</v>
+        <v>2.509873780146444</v>
       </c>
       <c r="R22">
-        <v>23.101952515104</v>
+        <v>22.588864021318</v>
       </c>
       <c r="S22">
-        <v>0.02034936111650503</v>
+        <v>0.01720613850860266</v>
       </c>
       <c r="T22">
-        <v>0.02034936111650503</v>
+        <v>0.01720613850860267</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H23">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I23">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J23">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O23">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P23">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q23">
-        <v>5.813647262490889</v>
+        <v>7.391353415330443</v>
       </c>
       <c r="R23">
-        <v>52.322825362418</v>
+        <v>66.522180737974</v>
       </c>
       <c r="S23">
-        <v>0.04608857486134776</v>
+        <v>0.05067053635772416</v>
       </c>
       <c r="T23">
-        <v>0.04608857486134776</v>
+        <v>0.05067053635772416</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H24">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I24">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J24">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N24">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O24">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P24">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q24">
-        <v>0.9502132844660002</v>
+        <v>1.551363508324222</v>
       </c>
       <c r="R24">
-        <v>8.551919560194001</v>
+        <v>13.962271574918</v>
       </c>
       <c r="S24">
-        <v>0.007532960655854207</v>
+        <v>0.01063518636377837</v>
       </c>
       <c r="T24">
-        <v>0.007532960655854207</v>
+        <v>0.01063518636377837</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H25">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I25">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J25">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N25">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O25">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P25">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q25">
-        <v>1.385180354978889</v>
+        <v>2.366927313472222</v>
       </c>
       <c r="R25">
-        <v>12.46662319481</v>
+        <v>21.30234582125</v>
       </c>
       <c r="S25">
-        <v>0.01098122841040063</v>
+        <v>0.01622618616025449</v>
       </c>
       <c r="T25">
-        <v>0.01098122841040063</v>
+        <v>0.01622618616025449</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H26">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I26">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J26">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N26">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O26">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P26">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q26">
-        <v>1.151148322208222</v>
+        <v>1.096580909033778</v>
       </c>
       <c r="R26">
-        <v>10.360334899874</v>
+        <v>9.869228181304001</v>
       </c>
       <c r="S26">
-        <v>0.00912590379655695</v>
+        <v>0.00751747882940301</v>
       </c>
       <c r="T26">
-        <v>0.00912590379655695</v>
+        <v>0.00751747882940301</v>
       </c>
     </row>
   </sheetData>
